--- a/comissao_rv_2025.xlsx
+++ b/comissao_rv_2025.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PabloPereira\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PabloPereira\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E60AD37F-51E4-49A0-966F-78DF35EE4B00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64F3DCF2-0015-4639-A5DD-414EB24DE650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{93605F71-D1F5-4B7C-913B-932F2BB75327}"/>
   </bookViews>
@@ -836,7 +836,7 @@
   <dimension ref="A1:Q297"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:Q1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.8" x14ac:dyDescent="0.25"/>

--- a/comissao_rv_2025.xlsx
+++ b/comissao_rv_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PabloPereira\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64F3DCF2-0015-4639-A5DD-414EB24DE650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C1BB72F-B7A0-4D05-B517-BAB8FFDDBF9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{93605F71-D1F5-4B7C-913B-932F2BB75327}"/>
   </bookViews>
@@ -281,9 +281,6 @@
     <t>id_colab</t>
   </si>
   <si>
-    <t>mês_apuracao</t>
-  </si>
-  <si>
     <t>canal</t>
   </si>
   <si>
@@ -309,6 +306,9 @@
   </si>
   <si>
     <t>realizado_visaogarra_2</t>
+  </si>
+  <si>
+    <t>mes_apuracao</t>
   </si>
 </sst>
 </file>
@@ -866,16 +866,16 @@
         <v>80</v>
       </c>
       <c r="B1" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>83</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>84</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>75</v>
@@ -896,22 +896,22 @@
         <v>79</v>
       </c>
       <c r="L1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="M1" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="N1" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="N1" s="16" t="s">
+      <c r="O1" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="P1" s="16" t="s">
+      <c r="Q1" s="16" t="s">
         <v>89</v>
-      </c>
-      <c r="Q1" s="16" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.6">
